--- a/wwwroot/RegulatorExcel/InputTemplate/CheckLastUpdate.xlsx
+++ b/wwwroot/RegulatorExcel/InputTemplate/CheckLastUpdate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\SLA_Management\wwwroot\GatewayExcel\InputTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A742D13-3B24-42D6-897A-78F9F0F8972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FA1450-DA21-4F4F-B3DD-C72F0BAB1712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="19875" windowHeight="7725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>Terminal ID</t>
   </si>
   <si>
-    <t>Branch Name</t>
+    <t>Terminal Name</t>
   </si>
   <si>
     <t>Last EJ Update Date</t>
@@ -186,17 +186,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +510,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -524,28 +524,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
@@ -575,10 +575,10 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
